--- a/db/db_analysis/query_execution_times_4-8-2021-03-19.xlsx
+++ b/db/db_analysis/query_execution_times_4-8-2021-03-19.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{42BBFFCC-278F-4440-9D1C-192F2504E837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2802E44D-0A7C-0146-91A5-37860EEC6311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="67860" windowHeight="28300" activeTab="1"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="67860" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_execution_times_4-8-2021-" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="661">
   <si>
     <t>8f30001f9d8fbdd12cf2c549c1d18aecb5179c6e93b134408aa10e6e5133a61c</t>
   </si>
@@ -5433,11 +5433,398 @@
   <si>
     <t>order</t>
   </si>
+  <si>
+    <t>Finalize Aggregate  (cost=2658221.70..2658221.71 rows=1 width=8) (actual time=71668.433..71668.433 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=2658221.49..2658221.70 rows=2 width=8) (actual time=71659.942..74906.955 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Workers Planned: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Workers Launched: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=2657221.49..2657221.50 rows=1 width=8) (actual time=71603.401..71603.401 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=785224.61..2597026.94 rows=24077820 width=0) (actual time=58615.990..70191.416 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Hash Cond: (ord_det.order_id = ord.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash Join  (cost=21313.00..1211157.33 rows=24077820 width=8) (actual time=14753.837..28618.345 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Hash Cond: (ord_det.product_id = prod.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=1.082..8032.352 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash  (cost=14476.67..14476.67 rows=416667 width=8) (actual time=232.682..232.683 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Buckets: 131072  Batches: 16  Memory Usage: 3520kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=8) (actual time=0.723..103.317 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=627191.73..627191.73 rows=8333350 width=8) (actual time=18258.408..18258.408 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Buckets: 131072  Batches: 512  Memory Usage: 2592kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96697.63..627191.73 rows=8333350 width=8) (actual time=9241.395..13950.787 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Hash Cond: (ord.customer_id = cus.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=16) (actual time=3.033..4501.031 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Hash Cond: (ord.discount_id = dis.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on order" ord  (cost=0.00..250000.50 rows=8333350 width=24) (actual time=2.171..1948.844 rows=6666667 loops=3)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=0.765..0.766 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Buckets: 1024  Batches: 1  Memory Usage: 28kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=0.568..0.656 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=1820.175..1820.175 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 128  Memory Usage: 2624kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.132..903.680 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t>Planning Time: 3.384 ms</t>
+  </si>
+  <si>
+    <t>Execution Time: 74907.618 ms</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=2395630.29..2395630.30 rows=1 width=8) (actual time=56092.066..56092.066 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=2395630.07..2395630.28 rows=2 width=8) (actual time=56087.113..59081.022 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=2394630.07..2394630.08 rows=1 width=8) (actual time=56028.008..56028.008 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=522633.19..2334435.52 rows=24077820 width=0) (actual time=43516.172..54683.051 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash Join  (cost=21313.00..1211157.33 rows=24077820 width=8) (actual time=12317.083..25609.894 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=1.580..5975.132 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash  (cost=14476.67..14476.67 rows=416667 width=8) (actual time=245.614..245.614 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=8) (actual time=1.015..112.406 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=364600.31..364600.31 rows=8333350 width=8) (actual time=8043.152..8043.152 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=8) (actual time=1.600..4163.710 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Hash Cond: (ord.discount_id = dis.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order" ord  (cost=0.00..250000.50 rows=8333350 width=16) (actual time=0.736..1902.183 rows=6666667 loops=3)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=0.825..0.825 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 1024  Batches: 1  Memory Usage: 28kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=0.576..0.683 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t>Planning Time: 0.468 ms</t>
+  </si>
+  <si>
+    <t>Execution Time: 59081.482 ms</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=6987044.30..6987044.31 rows=1 width=8) (actual time=99626.085..99626.085 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=6987044.09..6987044.30 rows=2 width=8) (actual time=99618.716..106722.496 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=6986044.09..6986044.10 rows=1 width=8) (actual time=99566.337..99566.338 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=1710224.63..6624876.80 rows=144466917 width=0) (actual time=86588.811..98256.502 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Hash Cond: (ord.id = ord_det.order_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Hash Join  (cost=96718.38..2299741.79 rows=50000100 width=8) (actual time=7394.542..14504.490 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Hash Cond: (ord.deliverer_id = del.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96681.38..528867.92 rows=8333350 width=16) (actual time=7392.816..12619.177 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order" ord  (cost=0.00..250000.50 rows=8333350 width=24) (actual time=1.862..2656.920 rows=6666667 loops=3)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=1604.881..1604.882 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.370..771.395 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash  (cost=22.00..22.00 rows=1200 width=8) (actual time=1.639..1.639 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Buckets: 2048  Batches: 1  Memory Usage: 17kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Seq Scan on deliverer del  (cost=0.00..22.00 rows=1200 width=8) (actual time=1.617..1.619 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=1218479.51..1218479.51 rows=24077820 width=8) (actual time=62429.701..62429.701 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Buckets: 131072  Batches: 1024  Memory Usage: 3392kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=28635.18..1218479.51 rows=24077820 width=8) (actual time=12490.055..27263.098 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                Hash Cond: (ord_det.product_id = prod.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=0.998..5901.832 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=21798.84..21798.84 rows=416667 width=8) (actual time=479.618..479.618 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 16  Memory Usage: 3552kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash Join  (cost=1593.00..21798.84 rows=416667 width=8) (actual time=34.455..344.729 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Hash Cond: (prod.subcategory_id = sub.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=16) (actual time=0.680..121.251 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Hash  (cost=968.00..968.00 rows=50000 width=8) (actual time=33.373..33.373 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  Buckets: 65536  Batches: 1  Memory Usage: 2466kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  -&gt;  Seq Scan on subcategory sub  (cost=0.00..968.00 rows=50000 width=8) (actual time=0.628..19.098 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t>Planning Time: 4.272 ms</t>
+  </si>
+  <si>
+    <t>Execution Time: 106724.088 ms</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=6988040.81..6988040.82 rows=1 width=8) (actual time=96636.343..96636.343 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=6988040.59..6988040.80 rows=2 width=8) (actual time=96630.231..104454.875 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=6987040.59..6987040.60 rows=1 width=8) (actual time=96578.975..96578.975 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=1711221.13..6625873.30 rows=144466918 width=0) (actual time=83452.815..95252.635 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Hash Join  (cost=96718.38..2299741.79 rows=50000100 width=8) (actual time=6687.497..13702.133 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96681.38..528867.92 rows=8333350 width=16) (actual time=6686.187..11819.844 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order" ord  (cost=0.00..250000.50 rows=8333350 width=24) (actual time=1.881..2567.183 rows=6666667 loops=3)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=1262.901..1262.901 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 128  Memory Usage: 2592kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.316..511.566 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash  (cost=22.00..22.00 rows=1200 width=8) (actual time=1.235..1.236 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Seq Scan on deliverer del  (cost=0.00..22.00 rows=1200 width=8) (actual time=1.208..1.211 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=1219476.01..1219476.01 rows=24077820 width=8) (actual time=59953.090..59953.090 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=29631.68..1219476.01 rows=24077820 width=8) (actual time=12302.067..26990.434 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=1.567..5887.192 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=22795.34..22795.34 rows=416667 width=8) (actual time=540.449..540.449 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      Buckets: 131072  Batches: 16  Memory Usage: 3520kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash Join  (cost=2589.50..22795.34 rows=416667 width=8) (actual time=59.520..402.100 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=16) (actual time=0.643..125.587 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Hash  (cost=1964.50..1964.50 rows=50000 width=8) (actual time=58.448..58.448 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  -&gt;  Hash Join  (cost=309.00..1964.50 rows=50000 width=8) (actual time=7.184..42.030 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        Hash Cond: (sub.category_id = cat.id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Seq Scan on subcategory sub  (cost=0.00..968.00 rows=50000 width=16) (actual time=0.567..11.356 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Hash  (cost=184.00..184.00 rows=10000 width=8) (actual time=6.493..6.493 rows=10000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              Buckets: 16384  Batches: 1  Memory Usage: 519kB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              -&gt;  Seq Scan on category cat  (cost=0.00..184.00 rows=10000 width=8) (actual time=0.553..4.221 rows=10000 loops=3)</t>
+  </si>
+  <si>
+    <t>Planning Time: 6.672 ms</t>
+  </si>
+  <si>
+    <t>Execution Time: 104456.324 ms</t>
+  </si>
+  <si>
+    <t>Finalize Aggregate  (cost=7102640.62..7102640.63 rows=1 width=8) (actual time=99965.417..99965.417 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -&gt;  Gather  (cost=7102640.40..7102640.61 rows=2 width=8) (actual time=99957.296..107676.918 rows=3 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -&gt;  Partial Aggregate  (cost=7101640.40..7101640.41 rows=1 width=8) (actual time=99907.743..99907.743 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              -&gt;  Parallel Hash Join  (cost=1711237.38..6740473.11 rows=144466918 width=0) (actual time=87002.308..98601.545 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Hash Join  (cost=96734.63..2414341.60 rows=50000100 width=8) (actual time=10959.186..18100.029 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=96697.63..643467.73 rows=8333350 width=16) (actual time=10956.959..16223.841 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Hash Join  (cost=16.25..364600.31 rows=8333350 width=24) (actual time=3.097..5521.861 rows=6666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on order" ord  (cost=0.00..250000.50 rows=8333350 width=32) (actual time=1.882..2840.510 rows=6666667 loops=3)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash  (cost=10.00..10.00 rows=500 width=8) (actual time=1.145..1.146 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Seq Scan on discount dis  (cost=0.00..10.00 rows=500 width=8) (actual time=0.890..1.015 rows=500 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=62500.50..62500.50 rows=2083350 width=8) (actual time=2261.657..2261.657 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Parallel Seq Scan on customer cus  (cost=0.00..62500.50 rows=2083350 width=8) (actual time=1.968..516.455 rows=1666667 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Hash  (cost=22.00..22.00 rows=1200 width=8) (actual time=2.150..2.151 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Seq Scan on deliverer del  (cost=0.00..22.00 rows=1200 width=8) (actual time=2.129..2.131 rows=4 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -&gt;  Parallel Hash  (cost=1219476.01..1219476.01 rows=24077820 width=8) (actual time=59659.426..59659.426 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          -&gt;  Parallel Hash Join  (cost=29631.68..1219476.01 rows=24077820 width=8) (actual time=12332.715..26682.588 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Seq Scan on order_details ord_det  (cost=0.00..750000.00 rows=25000000 width=16) (actual time=1.767..5845.385 rows=20000000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                -&gt;  Parallel Hash  (cost=22795.34..22795.34 rows=416667 width=8) (actual time=506.300..506.300 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      -&gt;  Hash Join  (cost=2589.50..22795.34 rows=416667 width=8) (actual time=63.055..370.600 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Parallel Seq Scan on product prod  (cost=0.00..14476.67 rows=416667 width=16) (actual time=0.685..105.120 rows=333333 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            -&gt;  Hash  (cost=1964.50..1964.50 rows=50000 width=8) (actual time=61.925..61.926 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  -&gt;  Hash Join  (cost=309.00..1964.50 rows=50000 width=8) (actual time=5.282..43.960 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Seq Scan on subcategory sub  (cost=0.00..968.00 rows=50000 width=16) (actual time=0.520..12.062 rows=50000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                        -&gt;  Hash  (cost=184.00..184.00 rows=10000 width=8) (actual time=4.623..4.623 rows=10000 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              -&gt;  Seq Scan on category cat  (cost=0.00..184.00 rows=10000 width=8) (actual time=0.582..2.618 rows=10000 loops=3)</t>
+  </si>
+  <si>
+    <t>Planning Time: 11.369 ms</t>
+  </si>
+  <si>
+    <t>Execution Time: 107677.969 ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -6165,24 +6552,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -6212,28 +6581,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
@@ -6261,123 +6636,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -6558,17 +6817,69 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6582,6 +6893,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -6762,17 +7098,69 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6786,6 +7174,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -6966,17 +7379,69 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6990,6 +7455,31 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
@@ -7170,60 +7660,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7240,7 +7676,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -7249,98 +7686,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -7382,13 +7727,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -7402,6 +7740,55 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7586,33 +7973,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'[1]4 tables'!$H$2:$H$9</c:f>
+              <c:f>'4'!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.584400000000002</c:v>
+                  <c:v>54.249200000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14523,57 +14910,36 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="F3">
-            <v>39.023679494857703</v>
-          </cell>
           <cell r="H3">
             <v>41.584400000000002</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="F4">
-            <v>39.401917457580502</v>
-          </cell>
           <cell r="H4">
             <v>41.584400000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="F5">
-            <v>39.980157613754201</v>
-          </cell>
           <cell r="H5">
             <v>41.584400000000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="F6">
-            <v>40.174751281738203</v>
-          </cell>
           <cell r="H6">
             <v>41.584400000000002</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>40.722795486450103</v>
-          </cell>
           <cell r="H7">
             <v>41.584400000000002</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="F8">
-            <v>41.022644281387301</v>
-          </cell>
           <cell r="H8">
             <v>41.584400000000002</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="F9">
-            <v>41.312268972396801</v>
-          </cell>
           <cell r="H9">
             <v>41.584400000000002</v>
           </cell>
@@ -14589,217 +14955,136 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="F3">
-            <v>28.833361864089898</v>
-          </cell>
           <cell r="H3">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="F4">
-            <v>30.251084804534901</v>
-          </cell>
           <cell r="H4">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="F5">
-            <v>31.070029020309399</v>
-          </cell>
           <cell r="H5">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="F6">
-            <v>46.014924764633101</v>
-          </cell>
           <cell r="H6">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>46.699423789977999</v>
-          </cell>
           <cell r="H7">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="F8">
-            <v>48.313107967376702</v>
-          </cell>
           <cell r="H8">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="F9">
-            <v>48.6866841316223</v>
-          </cell>
           <cell r="H9">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="F10">
-            <v>48.763175964355398</v>
-          </cell>
           <cell r="H10">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="F11">
-            <v>49.482953548431396</v>
-          </cell>
           <cell r="H11">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="F12">
-            <v>49.910405397415097</v>
-          </cell>
           <cell r="H12">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="F13">
-            <v>49.956198453903198</v>
-          </cell>
           <cell r="H13">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="F14">
-            <v>49.979338407516401</v>
-          </cell>
           <cell r="H14">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="F15">
-            <v>51.423537015914903</v>
-          </cell>
           <cell r="H15">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="F16">
-            <v>52.370538711547802</v>
-          </cell>
           <cell r="H16">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="F17">
-            <v>52.561200380325303</v>
-          </cell>
           <cell r="H17">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="F18">
-            <v>52.603610038757303</v>
-          </cell>
           <cell r="H18">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="F19">
-            <v>52.776305437087998</v>
-          </cell>
           <cell r="H19">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="F20">
-            <v>53.449887514114302</v>
-          </cell>
           <cell r="H20">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="F21">
-            <v>53.620878458023</v>
-          </cell>
           <cell r="H21">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="F22">
-            <v>54.258937120437601</v>
-          </cell>
           <cell r="H22">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="F23">
-            <v>54.632431983947697</v>
-          </cell>
           <cell r="H23">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="F24">
-            <v>55.227980375289903</v>
-          </cell>
           <cell r="H24">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="F25">
-            <v>55.417575120925903</v>
-          </cell>
           <cell r="H25">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="F26">
-            <v>55.999368667602504</v>
-          </cell>
           <cell r="H26">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="F27">
-            <v>56.7354736328125</v>
-          </cell>
           <cell r="H27">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="F28">
-            <v>56.750160932540801</v>
-          </cell>
           <cell r="H28">
             <v>46.136000000000003</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="F29">
-            <v>56.779438734054501</v>
-          </cell>
           <cell r="H29">
             <v>46.136000000000003</v>
           </cell>
@@ -14815,473 +15100,296 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="F3">
-            <v>31.2925269603729</v>
-          </cell>
           <cell r="H3">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="F4">
-            <v>31.653524637222201</v>
-          </cell>
           <cell r="H4">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="F5">
-            <v>32.890317201614302</v>
-          </cell>
           <cell r="H5">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="F6">
-            <v>33.198459148406897</v>
-          </cell>
           <cell r="H6">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>33.200044870376502</v>
-          </cell>
           <cell r="H7">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="F8">
-            <v>34.727166652679401</v>
-          </cell>
           <cell r="H8">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="F9">
-            <v>35.062793970107997</v>
-          </cell>
           <cell r="H9">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="F10">
-            <v>36.535432815551701</v>
-          </cell>
           <cell r="H10">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="F11">
-            <v>36.920622587203901</v>
-          </cell>
           <cell r="H11">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="F12">
-            <v>51.721250057220402</v>
-          </cell>
           <cell r="H12">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="F13">
-            <v>52.905580520629798</v>
-          </cell>
           <cell r="H13">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="F14">
-            <v>53.162135839462202</v>
-          </cell>
           <cell r="H14">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="F15">
-            <v>54.311239242553697</v>
-          </cell>
           <cell r="H15">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="F16">
-            <v>55.233798980712798</v>
-          </cell>
           <cell r="H16">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="F17">
-            <v>55.654960393905597</v>
-          </cell>
           <cell r="H17">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="F18">
-            <v>56.130151987075799</v>
-          </cell>
           <cell r="H18">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="F19">
-            <v>56.322835922241197</v>
-          </cell>
           <cell r="H19">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="F20">
-            <v>56.3755524158477</v>
-          </cell>
           <cell r="H20">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="F21">
-            <v>57.015846729278501</v>
-          </cell>
           <cell r="H21">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="F22">
-            <v>57.077827453613203</v>
-          </cell>
           <cell r="H22">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="F23">
-            <v>57.685279607772799</v>
-          </cell>
           <cell r="H23">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="F24">
-            <v>57.760575532913201</v>
-          </cell>
           <cell r="H24">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="F25">
-            <v>57.839960575103703</v>
-          </cell>
           <cell r="H25">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="F26">
-            <v>58.193585872650097</v>
-          </cell>
           <cell r="H26">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="F27">
-            <v>58.243394851684499</v>
-          </cell>
           <cell r="H27">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="F28">
-            <v>58.708096504211397</v>
-          </cell>
           <cell r="H28">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="F29">
-            <v>58.835803508758502</v>
-          </cell>
           <cell r="H29">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="F30">
-            <v>59.146315097808802</v>
-          </cell>
           <cell r="H30">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="F31">
-            <v>59.240445375442498</v>
-          </cell>
           <cell r="H31">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="F32">
-            <v>59.691854476928697</v>
-          </cell>
           <cell r="H32">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="F33">
-            <v>59.972696065902703</v>
-          </cell>
           <cell r="H33">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="F34">
-            <v>60.014406442642198</v>
-          </cell>
           <cell r="H34">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="F35">
-            <v>60.245393753051701</v>
-          </cell>
           <cell r="H35">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="F36">
-            <v>60.636839866638098</v>
-          </cell>
           <cell r="H36">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="F37">
-            <v>61.007929325103703</v>
-          </cell>
           <cell r="H37">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="F38">
-            <v>61.039853096008301</v>
-          </cell>
           <cell r="H38">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="F39">
-            <v>61.1601402759552</v>
-          </cell>
           <cell r="H39">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="F40">
-            <v>61.484226465225198</v>
-          </cell>
           <cell r="H40">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="F41">
-            <v>61.9867875576019</v>
-          </cell>
           <cell r="H41">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="F42">
-            <v>62.203825950622502</v>
-          </cell>
           <cell r="H42">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="F43">
-            <v>62.550661802291799</v>
-          </cell>
           <cell r="H43">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="F44">
-            <v>62.989017724990802</v>
-          </cell>
           <cell r="H44">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="F45">
-            <v>63.0034401416778</v>
-          </cell>
           <cell r="H45">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="F46">
-            <v>63.059952974319401</v>
-          </cell>
           <cell r="H46">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="F47">
-            <v>63.125332355499197</v>
-          </cell>
           <cell r="H47">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="F48">
-            <v>63.321304321288999</v>
-          </cell>
           <cell r="H48">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="F49">
-            <v>63.636639356613102</v>
-          </cell>
           <cell r="H49">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="F50">
-            <v>63.650132179260197</v>
-          </cell>
           <cell r="H50">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="51">
-          <cell r="F51">
-            <v>63.843847274780202</v>
-          </cell>
           <cell r="H51">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="F52">
-            <v>63.877499818801802</v>
-          </cell>
           <cell r="H52">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="53">
-          <cell r="F53">
-            <v>64.557465791702199</v>
-          </cell>
           <cell r="H53">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="54">
-          <cell r="F54">
-            <v>64.680006742477403</v>
-          </cell>
           <cell r="H54">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="55">
-          <cell r="F55">
-            <v>65.032255172729407</v>
-          </cell>
           <cell r="H55">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="56">
-          <cell r="F56">
-            <v>65.463764429092393</v>
-          </cell>
           <cell r="H56">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="F57">
-            <v>65.726979970932007</v>
-          </cell>
           <cell r="H57">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="58">
-          <cell r="F58">
-            <v>65.766394376754704</v>
-          </cell>
           <cell r="H58">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="59">
-          <cell r="F59">
-            <v>65.814358949661198</v>
-          </cell>
           <cell r="H59">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="60">
-          <cell r="F60">
-            <v>66.174997568130493</v>
-          </cell>
           <cell r="H60">
             <v>54.984000000000002</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="F61">
-            <v>67.761249065399099</v>
-          </cell>
           <cell r="H61">
             <v>54.984000000000002</v>
           </cell>
@@ -15297,793 +15405,496 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="F3">
-            <v>51.840619564056396</v>
-          </cell>
           <cell r="H3">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="F4">
-            <v>51.8789188861846</v>
-          </cell>
           <cell r="H4">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="F5">
-            <v>52.1106083393096</v>
-          </cell>
           <cell r="H5">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="F6">
-            <v>52.1785407066345</v>
-          </cell>
           <cell r="H6">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="F7">
-            <v>52.268885612487701</v>
-          </cell>
           <cell r="H7">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="F8">
-            <v>52.364154100417998</v>
-          </cell>
           <cell r="H8">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="F9">
-            <v>52.417233228683401</v>
-          </cell>
           <cell r="H9">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="F10">
-            <v>52.5751309394836</v>
-          </cell>
           <cell r="H10">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="F11">
-            <v>52.591636419296201</v>
-          </cell>
           <cell r="H11">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="F12">
-            <v>52.592880249023402</v>
-          </cell>
           <cell r="H12">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="F13">
-            <v>52.6883735656738</v>
-          </cell>
           <cell r="H13">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="F14">
-            <v>52.721693515777503</v>
-          </cell>
           <cell r="H14">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="F15">
-            <v>52.752286672592099</v>
-          </cell>
           <cell r="H15">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="F16">
-            <v>52.885697603225701</v>
-          </cell>
           <cell r="H16">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="F17">
-            <v>53.078898191451998</v>
-          </cell>
           <cell r="H17">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="F18">
-            <v>53.104223489761303</v>
-          </cell>
           <cell r="H18">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="F19">
-            <v>53.3458504676818</v>
-          </cell>
           <cell r="H19">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="F20">
-            <v>53.374960184097198</v>
-          </cell>
           <cell r="H20">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="F21">
-            <v>53.405731439590397</v>
-          </cell>
           <cell r="H21">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="F22">
-            <v>53.480427742004302</v>
-          </cell>
           <cell r="H22">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="F23">
-            <v>53.482544898986802</v>
-          </cell>
           <cell r="H23">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="F24">
-            <v>53.512217283248901</v>
-          </cell>
           <cell r="H24">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="F25">
-            <v>53.608274221420203</v>
-          </cell>
           <cell r="H25">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="F26">
-            <v>53.634776353836003</v>
-          </cell>
           <cell r="H26">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="F27">
-            <v>53.678066492080603</v>
-          </cell>
           <cell r="H27">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="F28">
-            <v>53.821217060089097</v>
-          </cell>
           <cell r="H28">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="F29">
-            <v>53.8502612113952</v>
-          </cell>
           <cell r="H29">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="F30">
-            <v>53.882440090179401</v>
-          </cell>
           <cell r="H30">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="F31">
-            <v>53.940414190292302</v>
-          </cell>
           <cell r="H31">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="F32">
-            <v>53.996366977691601</v>
-          </cell>
           <cell r="H32">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="F33">
-            <v>54.011079788208001</v>
-          </cell>
           <cell r="H33">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="F34">
-            <v>54.019507169723497</v>
-          </cell>
           <cell r="H34">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="35">
-          <cell r="F35">
-            <v>54.0432703495025</v>
-          </cell>
           <cell r="H35">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="36">
-          <cell r="F36">
-            <v>54.1098504066467</v>
-          </cell>
           <cell r="H36">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="37">
-          <cell r="F37">
-            <v>54.1741523742675</v>
-          </cell>
           <cell r="H37">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="38">
-          <cell r="F38">
-            <v>54.190321207046502</v>
-          </cell>
           <cell r="H38">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="F39">
-            <v>54.218320608139003</v>
-          </cell>
           <cell r="H39">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="40">
-          <cell r="F40">
-            <v>54.229149341583202</v>
-          </cell>
           <cell r="H40">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="F41">
-            <v>54.239287853240903</v>
-          </cell>
           <cell r="H41">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="F42">
-            <v>54.353125095367403</v>
-          </cell>
           <cell r="H42">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="F43">
-            <v>54.356910705566399</v>
-          </cell>
           <cell r="H43">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="F44">
-            <v>54.377712965011597</v>
-          </cell>
           <cell r="H44">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="45">
-          <cell r="F45">
-            <v>54.398547887802103</v>
-          </cell>
           <cell r="H45">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="46">
-          <cell r="F46">
-            <v>54.473747014999297</v>
-          </cell>
           <cell r="H46">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="F47">
-            <v>54.5093541145324</v>
-          </cell>
           <cell r="H47">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="F48">
-            <v>54.542210817337001</v>
-          </cell>
           <cell r="H48">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="F49">
-            <v>54.576895236968902</v>
-          </cell>
           <cell r="H49">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="F50">
-            <v>54.5930750370025</v>
-          </cell>
           <cell r="H50">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="51">
-          <cell r="F51">
-            <v>54.603032588958698</v>
-          </cell>
           <cell r="H51">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="F52">
-            <v>54.660228252410803</v>
-          </cell>
           <cell r="H52">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="53">
-          <cell r="F53">
-            <v>54.713551282882598</v>
-          </cell>
           <cell r="H53">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="54">
-          <cell r="F54">
-            <v>54.770842313766401</v>
-          </cell>
           <cell r="H54">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="55">
-          <cell r="F55">
-            <v>54.783833742141702</v>
-          </cell>
           <cell r="H55">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="56">
-          <cell r="F56">
-            <v>54.820996999740601</v>
-          </cell>
           <cell r="H56">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="F57">
-            <v>54.854239463806103</v>
-          </cell>
           <cell r="H57">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="58">
-          <cell r="F58">
-            <v>54.864010810852001</v>
-          </cell>
           <cell r="H58">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="59">
-          <cell r="F59">
-            <v>54.913079023361199</v>
-          </cell>
           <cell r="H59">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="60">
-          <cell r="F60">
-            <v>54.953108549117999</v>
-          </cell>
           <cell r="H60">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="61">
-          <cell r="F61">
-            <v>54.962764501571598</v>
-          </cell>
           <cell r="H61">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="62">
-          <cell r="F62">
-            <v>55.107133150100701</v>
-          </cell>
           <cell r="H62">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="63">
-          <cell r="F63">
-            <v>55.161622047424302</v>
-          </cell>
           <cell r="H63">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="64">
-          <cell r="F64">
-            <v>55.291106224060002</v>
-          </cell>
           <cell r="H64">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="65">
-          <cell r="F65">
-            <v>55.314290285110403</v>
-          </cell>
           <cell r="H65">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="66">
-          <cell r="F66">
-            <v>55.330251216888399</v>
-          </cell>
           <cell r="H66">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="67">
-          <cell r="F67">
-            <v>55.354142904281602</v>
-          </cell>
           <cell r="H67">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="68">
-          <cell r="F68">
-            <v>55.504295825958202</v>
-          </cell>
           <cell r="H68">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="69">
-          <cell r="F69">
-            <v>55.579244375228797</v>
-          </cell>
           <cell r="H69">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="70">
-          <cell r="F70">
-            <v>55.773881435394202</v>
-          </cell>
           <cell r="H70">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="71">
-          <cell r="F71">
-            <v>55.780682563781703</v>
-          </cell>
           <cell r="H71">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="72">
-          <cell r="F72">
-            <v>56.017968893051098</v>
-          </cell>
           <cell r="H72">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="73">
-          <cell r="F73">
-            <v>56.077961444854701</v>
-          </cell>
           <cell r="H73">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="74">
-          <cell r="F74">
-            <v>56.319343090057302</v>
-          </cell>
           <cell r="H74">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="75">
-          <cell r="F75">
-            <v>56.332172870635901</v>
-          </cell>
           <cell r="H75">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="76">
-          <cell r="F76">
-            <v>56.358108043670597</v>
-          </cell>
           <cell r="H76">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="77">
-          <cell r="F77">
-            <v>56.401856184005702</v>
-          </cell>
           <cell r="H77">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="78">
-          <cell r="F78">
-            <v>56.458839178085299</v>
-          </cell>
           <cell r="H78">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="79">
-          <cell r="F79">
-            <v>56.501140594482401</v>
-          </cell>
           <cell r="H79">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="80">
-          <cell r="F80">
-            <v>56.672956228256197</v>
-          </cell>
           <cell r="H80">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="81">
-          <cell r="F81">
-            <v>56.698803901672299</v>
-          </cell>
           <cell r="H81">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="82">
-          <cell r="F82">
-            <v>56.717446088790801</v>
-          </cell>
           <cell r="H82">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="83">
-          <cell r="F83">
-            <v>56.761905908584502</v>
-          </cell>
           <cell r="H83">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="84">
-          <cell r="F84">
-            <v>56.781658887863102</v>
-          </cell>
           <cell r="H84">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="85">
-          <cell r="F85">
-            <v>56.8435378074646</v>
-          </cell>
           <cell r="H85">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="86">
-          <cell r="F86">
-            <v>56.917001962661701</v>
-          </cell>
           <cell r="H86">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="87">
-          <cell r="F87">
-            <v>57.069768428802398</v>
-          </cell>
           <cell r="H87">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="88">
-          <cell r="F88">
-            <v>57.290205478668199</v>
-          </cell>
           <cell r="H88">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="89">
-          <cell r="F89">
-            <v>57.351307153701697</v>
-          </cell>
           <cell r="H89">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="90">
-          <cell r="F90">
-            <v>57.384586095809901</v>
-          </cell>
           <cell r="H90">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="91">
-          <cell r="F91">
-            <v>57.484482288360503</v>
-          </cell>
           <cell r="H91">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="92">
-          <cell r="F92">
-            <v>57.663443326950002</v>
-          </cell>
           <cell r="H92">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="93">
-          <cell r="F93">
-            <v>57.7492225170135</v>
-          </cell>
           <cell r="H93">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="94">
-          <cell r="F94">
-            <v>58.063313007354701</v>
-          </cell>
           <cell r="H94">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="95">
-          <cell r="F95">
-            <v>58.186952352523797</v>
-          </cell>
           <cell r="H95">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="96">
-          <cell r="F96">
-            <v>58.2302372455596</v>
-          </cell>
           <cell r="H96">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="97">
-          <cell r="F97">
-            <v>58.289937019348102</v>
-          </cell>
           <cell r="H97">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="98">
-          <cell r="F98">
-            <v>58.326749324798499</v>
-          </cell>
           <cell r="H98">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="99">
-          <cell r="F99">
-            <v>58.399551868438699</v>
-          </cell>
           <cell r="H99">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="100">
-          <cell r="F100">
-            <v>58.407806396484297</v>
-          </cell>
           <cell r="H100">
             <v>56.363999999999997</v>
           </cell>
         </row>
         <row r="101">
-          <cell r="F101">
-            <v>58.430790901183997</v>
-          </cell>
           <cell r="H101">
             <v>56.363999999999997</v>
           </cell>
@@ -16095,111 +15906,111 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G297" totalsRowShown="0">
-  <autoFilter ref="A1:G297"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G297" totalsRowShown="0">
+  <autoFilter ref="A1:G297" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="hash"/>
-    <tableColumn id="2" name="query" dataDxfId="60"/>
-    <tableColumn id="3" name="talbes"/>
-    <tableColumn id="4" name="ratio"/>
-    <tableColumn id="5" name="nr tables"/>
-    <tableColumn id="6" name="time in s"/>
-    <tableColumn id="7" name="order"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="hash"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="query" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="talbes"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ratio"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nr tables"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="time in s"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="order"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table6" displayName="Table6" ref="A1:G9" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState ref="A2:G9">
     <sortCondition ref="F1:F9"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="hash" dataDxfId="20"/>
-    <tableColumn id="2" name="query" dataDxfId="14"/>
-    <tableColumn id="3" name="talbes" dataDxfId="19"/>
-    <tableColumn id="4" name="ratio" dataDxfId="18"/>
-    <tableColumn id="5" name="nr tables" dataDxfId="17"/>
-    <tableColumn id="6" name="time in s" dataDxfId="16"/>
-    <tableColumn id="7" name="order" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="hash" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="query" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="talbes" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ratio" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="nr tables" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="time in s" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="order" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="11" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
-  <autoFilter ref="A1:G29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:G29" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <autoFilter ref="A1:G29" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="A2:G29">
     <sortCondition ref="F1:F29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="hash" dataDxfId="29"/>
-    <tableColumn id="2" name="query" dataDxfId="12"/>
-    <tableColumn id="3" name="talbes" dataDxfId="28"/>
-    <tableColumn id="4" name="ratio" dataDxfId="27"/>
-    <tableColumn id="5" name="nr tables" dataDxfId="26"/>
-    <tableColumn id="6" name="time in s" dataDxfId="25"/>
-    <tableColumn id="7" name="order" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="hash" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="query" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="talbes" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ratio" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="nr tables" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="time in s" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="order" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G61" totalsRowShown="0" headerRowDxfId="33" dataDxfId="9" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
-  <autoFilter ref="A1:G61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:G61" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="A1:G61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="A2:G61">
     <sortCondition ref="F1:F61"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="hash" dataDxfId="38"/>
-    <tableColumn id="2" name="query" dataDxfId="10"/>
-    <tableColumn id="3" name="talbes" dataDxfId="37"/>
-    <tableColumn id="4" name="ratio" dataDxfId="36"/>
-    <tableColumn id="5" name="nr tables" dataDxfId="35"/>
-    <tableColumn id="6" name="time in s" dataDxfId="34"/>
-    <tableColumn id="7" name="order" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="hash" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="query" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="talbes" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ratio" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="nr tables" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="time in s" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="order" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G101" totalsRowShown="0" headerRowDxfId="42" dataDxfId="7" headerRowBorderDxfId="49" tableBorderDxfId="50" totalsRowBorderDxfId="48">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="A1:G101" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:G101">
     <sortCondition ref="F1:F101"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="hash" dataDxfId="47"/>
-    <tableColumn id="2" name="query" dataDxfId="8"/>
-    <tableColumn id="3" name="talbes" dataDxfId="46"/>
-    <tableColumn id="4" name="ratio" dataDxfId="45"/>
-    <tableColumn id="5" name="nr tables" dataDxfId="44"/>
-    <tableColumn id="6" name="time in s" dataDxfId="43"/>
-    <tableColumn id="7" name="order" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="hash" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="query" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="talbes" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ratio" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="nr tables" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="time in s" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="order" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G101" totalsRowShown="0" headerRowDxfId="51" dataDxfId="5" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table2" displayName="Table2" ref="A1:G101" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:G101">
     <sortCondition ref="F1:F101"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="hash" dataDxfId="56"/>
-    <tableColumn id="2" name="query" dataDxfId="6"/>
-    <tableColumn id="3" name="talbes" dataDxfId="55"/>
-    <tableColumn id="4" name="ratio" dataDxfId="54"/>
-    <tableColumn id="5" name="nr tables" dataDxfId="53"/>
-    <tableColumn id="6" name="time in s" dataDxfId="52"/>
-    <tableColumn id="7" name="order" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="hash" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="query" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="talbes" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="ratio" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="nr tables" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="time in s" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="order" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16501,7 +16312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23350,16 +23161,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:30" ht="17">
       <c r="A1" s="3" t="s">
         <v>525</v>
       </c>
@@ -23382,7 +23193,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1">
+    <row r="2" spans="1:30" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -23404,8 +23215,27 @@
       <c r="G2" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
+      <c r="I2">
+        <f>AVERAGE($K$2:$O$2)</f>
+        <v>54.249200000000009</v>
+      </c>
+      <c r="K2">
+        <v>54.86</v>
+      </c>
+      <c r="L2">
+        <v>53.154000000000003</v>
+      </c>
+      <c r="M2">
+        <v>54.17</v>
+      </c>
+      <c r="N2">
+        <v>53.820999999999998</v>
+      </c>
+      <c r="O2">
+        <v>55.241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -23427,8 +23257,12 @@
       <c r="G3" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1">
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="0">AVERAGE($K$2:$O$2)</f>
+        <v>54.249200000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -23450,8 +23284,12 @@
       <c r="G4" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>54.249200000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -23473,8 +23311,12 @@
       <c r="G5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>54.249200000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -23496,8 +23338,12 @@
       <c r="G6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>54.249200000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -23519,8 +23365,12 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>54.249200000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23542,8 +23392,12 @@
       <c r="G8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>54.249200000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -23564,6 +23418,123 @@
       </c>
       <c r="G9" s="2">
         <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>54.249200000000009</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="AD10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="AD11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="AD12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="AD13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="AD14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="AD15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="AD16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="30:30">
+      <c r="AD17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="30:30">
+      <c r="AD18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="30:30">
+      <c r="AD19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="30:30">
+      <c r="AD20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="30:30">
+      <c r="AD21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="30:30">
+      <c r="AD22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="30:30">
+      <c r="AD23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="30:30">
+      <c r="AD24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="25" spans="30:30">
+      <c r="AD25" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="30:30">
+      <c r="AD26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="30:30">
+      <c r="AD27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="30:30">
+      <c r="AD28" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="30:30">
+      <c r="AD29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" spans="30:30">
+      <c r="AD30" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="30:30">
+      <c r="AD31" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -23576,16 +23547,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:31" ht="17">
       <c r="A1" s="3" t="s">
         <v>525</v>
       </c>
@@ -23608,7 +23579,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1">
+    <row r="2" spans="1:31" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -23630,8 +23601,14 @@
       <c r="G2" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
+      <c r="J2">
+        <v>64</v>
+      </c>
+      <c r="K2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -23654,7 +23631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1">
+    <row r="4" spans="1:31" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -23677,7 +23654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1">
+    <row r="5" spans="1:31" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -23700,7 +23677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1">
+    <row r="6" spans="1:31" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -23723,7 +23700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1">
+    <row r="7" spans="1:31" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -23745,8 +23722,11 @@
       <c r="G7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1">
+      <c r="AE7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -23768,8 +23748,11 @@
       <c r="G8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1">
+      <c r="AE8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -23791,8 +23774,11 @@
       <c r="G9" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1">
+      <c r="AE9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -23814,8 +23800,11 @@
       <c r="G10" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1">
+      <c r="AE10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16" customHeight="1">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -23837,8 +23826,11 @@
       <c r="G11" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1">
+      <c r="AE11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -23860,8 +23852,11 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="AE12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -23883,8 +23878,11 @@
       <c r="G13" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="AE13" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -23906,8 +23904,11 @@
       <c r="G14" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="AE14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -23929,8 +23930,11 @@
       <c r="G15" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1">
+      <c r="AE15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="16" customHeight="1">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -23952,8 +23956,11 @@
       <c r="G16" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1">
+      <c r="AE16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -23975,8 +23982,11 @@
       <c r="G17" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1">
+      <c r="AE17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -23998,8 +24008,11 @@
       <c r="G18" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1">
+      <c r="AE18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -24021,8 +24034,11 @@
       <c r="G19" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1">
+      <c r="AE19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="16" customHeight="1">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -24044,8 +24060,11 @@
       <c r="G20" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1">
+      <c r="AE20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="16" customHeight="1">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -24067,8 +24086,11 @@
       <c r="G21" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1">
+      <c r="AE21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="16" customHeight="1">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -24090,8 +24112,11 @@
       <c r="G22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1">
+      <c r="AE22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="16" customHeight="1">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -24113,8 +24138,11 @@
       <c r="G23" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1">
+      <c r="AE23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16" customHeight="1">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -24136,8 +24164,11 @@
       <c r="G24" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1">
+      <c r="AE24" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="16" customHeight="1">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -24159,8 +24190,11 @@
       <c r="G25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1">
+      <c r="AE25" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="16" customHeight="1">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -24182,8 +24216,11 @@
       <c r="G26" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1">
+      <c r="AE26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -24205,8 +24242,11 @@
       <c r="G27" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1">
+      <c r="AE27" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="16" customHeight="1">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -24228,8 +24268,11 @@
       <c r="G28" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1">
+      <c r="AE28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="16" customHeight="1">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -24250,6 +24293,34 @@
       </c>
       <c r="G29" s="5">
         <v>23</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="AE30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="AE31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="AE32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="31:31">
+      <c r="AE33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="31:31">
+      <c r="AE34" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -24262,16 +24333,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+      <selection activeCell="AG48" sqref="AG48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:32" ht="17">
       <c r="A1" s="3" t="s">
         <v>525</v>
       </c>
@@ -24294,7 +24365,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1">
+    <row r="2" spans="1:32" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -24317,7 +24388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
+    <row r="3" spans="1:32" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -24340,7 +24411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1">
+    <row r="4" spans="1:32" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -24363,7 +24434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1">
+    <row r="5" spans="1:32" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>191</v>
       </c>
@@ -24386,7 +24457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1">
+    <row r="6" spans="1:32" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -24409,7 +24480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1">
+    <row r="7" spans="1:32" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -24431,8 +24502,11 @@
       <c r="G7" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1">
+      <c r="AF7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -24454,8 +24528,11 @@
       <c r="G8" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1">
+      <c r="AF8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -24477,8 +24554,11 @@
       <c r="G9" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1">
+      <c r="AF9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -24500,8 +24580,11 @@
       <c r="G10" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1">
+      <c r="AF10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="16" customHeight="1">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -24523,8 +24606,11 @@
       <c r="G11" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1">
+      <c r="AF11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>169</v>
       </c>
@@ -24546,8 +24632,11 @@
       <c r="G12" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="AF12" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -24569,8 +24658,11 @@
       <c r="G13" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="AF13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -24592,8 +24684,11 @@
       <c r="G14" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="AF14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -24615,8 +24710,11 @@
       <c r="G15" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1">
+      <c r="AF15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="16" customHeight="1">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -24638,8 +24736,11 @@
       <c r="G16" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1">
+      <c r="AF16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -24661,8 +24762,11 @@
       <c r="G17" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1">
+      <c r="AF17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -24684,8 +24788,11 @@
       <c r="G18" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1">
+      <c r="AF18" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -24707,8 +24814,11 @@
       <c r="G19" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1">
+      <c r="AF19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="16" customHeight="1">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -24730,8 +24840,11 @@
       <c r="G20" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1">
+      <c r="AF20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="16" customHeight="1">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -24753,8 +24866,11 @@
       <c r="G21" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1">
+      <c r="AF21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="16" customHeight="1">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -24776,8 +24892,11 @@
       <c r="G22" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1">
+      <c r="AF22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="16" customHeight="1">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -24799,8 +24918,11 @@
       <c r="G23" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1">
+      <c r="AF23" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="16" customHeight="1">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -24822,8 +24944,11 @@
       <c r="G24" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1">
+      <c r="AF24" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="16" customHeight="1">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -24845,8 +24970,11 @@
       <c r="G25" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1">
+      <c r="AF25" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="16" customHeight="1">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -24868,8 +24996,11 @@
       <c r="G26" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1">
+      <c r="AF26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>153</v>
       </c>
@@ -24891,8 +25022,11 @@
       <c r="G27" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1">
+      <c r="AF27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="16" customHeight="1">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -24914,8 +25048,11 @@
       <c r="G28" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1">
+      <c r="AF28" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="16" customHeight="1">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -24937,8 +25074,11 @@
       <c r="G29" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1">
+      <c r="AF29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="16" customHeight="1">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -24960,8 +25100,11 @@
       <c r="G30" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1">
+      <c r="AF30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="16" customHeight="1">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -24983,8 +25126,11 @@
       <c r="G31" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1">
+      <c r="AF31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="16" customHeight="1">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -25006,8 +25152,11 @@
       <c r="G32" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1">
+      <c r="AF32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="16" customHeight="1">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -25029,8 +25178,11 @@
       <c r="G33" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1">
+      <c r="AF33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="16" customHeight="1">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -25052,8 +25204,11 @@
       <c r="G34" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1">
+      <c r="AF34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="16" customHeight="1">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -25075,8 +25230,11 @@
       <c r="G35" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1">
+      <c r="AF35" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="16" customHeight="1">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -25098,8 +25256,11 @@
       <c r="G36" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1">
+      <c r="AF36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="16" customHeight="1">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -25121,8 +25282,11 @@
       <c r="G37" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1">
+      <c r="AF37" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="16" customHeight="1">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -25144,8 +25308,11 @@
       <c r="G38" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1">
+      <c r="AF38" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="16" customHeight="1">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -25167,8 +25334,11 @@
       <c r="G39" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1">
+      <c r="AF39" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="16" customHeight="1">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -25191,7 +25361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1">
+    <row r="41" spans="1:32" ht="16" customHeight="1">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -25214,7 +25384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1">
+    <row r="42" spans="1:32" ht="16" customHeight="1">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -25237,7 +25407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1">
+    <row r="43" spans="1:32" ht="16" customHeight="1">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -25260,7 +25430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1">
+    <row r="44" spans="1:32" ht="16" customHeight="1">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -25283,7 +25453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1">
+    <row r="45" spans="1:32" ht="16" customHeight="1">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -25306,7 +25476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1">
+    <row r="46" spans="1:32" ht="16" customHeight="1">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -25329,7 +25499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1">
+    <row r="47" spans="1:32" ht="16" customHeight="1">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -25352,7 +25522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1">
+    <row r="48" spans="1:32" ht="16" customHeight="1">
       <c r="A48" t="s">
         <v>165</v>
       </c>
@@ -25684,11 +25854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17:AK54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26061,7 +26231,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1">
+    <row r="17" spans="1:37" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -26083,8 +26253,11 @@
       <c r="G17" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1">
+      <c r="AK17" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -26106,8 +26279,11 @@
       <c r="G18" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1">
+      <c r="AK18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -26129,8 +26305,11 @@
       <c r="G19" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1">
+      <c r="AK19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="16" customHeight="1">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -26152,8 +26331,11 @@
       <c r="G20" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1">
+      <c r="AK20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="16" customHeight="1">
       <c r="A21" t="s">
         <v>292</v>
       </c>
@@ -26175,8 +26357,11 @@
       <c r="G21" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1">
+      <c r="AK21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="16" customHeight="1">
       <c r="A22" t="s">
         <v>238</v>
       </c>
@@ -26198,8 +26383,11 @@
       <c r="G22" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1">
+      <c r="AK22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="16" customHeight="1">
       <c r="A23" t="s">
         <v>304</v>
       </c>
@@ -26221,8 +26409,11 @@
       <c r="G23" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1">
+      <c r="AK23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="16" customHeight="1">
       <c r="A24" t="s">
         <v>274</v>
       </c>
@@ -26244,8 +26435,11 @@
       <c r="G24" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1">
+      <c r="AK24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="16" customHeight="1">
       <c r="A25" t="s">
         <v>304</v>
       </c>
@@ -26267,8 +26461,11 @@
       <c r="G25" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1">
+      <c r="AK25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="16" customHeight="1">
       <c r="A26" t="s">
         <v>210</v>
       </c>
@@ -26290,8 +26487,11 @@
       <c r="G26" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1">
+      <c r="AK26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -26313,8 +26513,11 @@
       <c r="G27" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1">
+      <c r="AK27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="16" customHeight="1">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -26336,8 +26539,11 @@
       <c r="G28" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1">
+      <c r="AK28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="16" customHeight="1">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -26359,8 +26565,11 @@
       <c r="G29" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1">
+      <c r="AK29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="16" customHeight="1">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -26382,8 +26591,11 @@
       <c r="G30" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1">
+      <c r="AK30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="16" customHeight="1">
       <c r="A31" t="s">
         <v>270</v>
       </c>
@@ -26405,8 +26617,11 @@
       <c r="G31" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1">
+      <c r="AK31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="16" customHeight="1">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -26428,8 +26643,11 @@
       <c r="G32" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1">
+      <c r="AK32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="16" customHeight="1">
       <c r="A33" t="s">
         <v>240</v>
       </c>
@@ -26451,8 +26669,11 @@
       <c r="G33" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1">
+      <c r="AK33" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="16" customHeight="1">
       <c r="A34" t="s">
         <v>320</v>
       </c>
@@ -26474,8 +26695,11 @@
       <c r="G34" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1">
+      <c r="AK34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="16" customHeight="1">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -26497,8 +26721,11 @@
       <c r="G35" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1">
+      <c r="AK35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="16" customHeight="1">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -26520,8 +26747,11 @@
       <c r="G36" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1">
+      <c r="AK36" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="16" customHeight="1">
       <c r="A37" t="s">
         <v>236</v>
       </c>
@@ -26543,8 +26773,11 @@
       <c r="G37" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1">
+      <c r="AK37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="16" customHeight="1">
       <c r="A38" t="s">
         <v>252</v>
       </c>
@@ -26566,8 +26799,11 @@
       <c r="G38" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1">
+      <c r="AK38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="16" customHeight="1">
       <c r="A39" t="s">
         <v>248</v>
       </c>
@@ -26589,8 +26825,11 @@
       <c r="G39" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1">
+      <c r="AK39" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="16" customHeight="1">
       <c r="A40" t="s">
         <v>280</v>
       </c>
@@ -26612,8 +26851,11 @@
       <c r="G40" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1">
+      <c r="AK40" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="16" customHeight="1">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -26635,8 +26877,11 @@
       <c r="G41" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1">
+      <c r="AK41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="16" customHeight="1">
       <c r="A42" t="s">
         <v>306</v>
       </c>
@@ -26658,8 +26903,11 @@
       <c r="G42" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1">
+      <c r="AK42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="16" customHeight="1">
       <c r="A43" t="s">
         <v>266</v>
       </c>
@@ -26681,8 +26929,11 @@
       <c r="G43" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1">
+      <c r="AK43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" ht="16" customHeight="1">
       <c r="A44" t="s">
         <v>195</v>
       </c>
@@ -26704,8 +26955,11 @@
       <c r="G44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1">
+      <c r="AK44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="16" customHeight="1">
       <c r="A45" t="s">
         <v>228</v>
       </c>
@@ -26727,8 +26981,11 @@
       <c r="G45" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1">
+      <c r="AK45" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="16" customHeight="1">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -26750,8 +27007,11 @@
       <c r="G46" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1">
+      <c r="AK46" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="16" customHeight="1">
       <c r="A47" t="s">
         <v>258</v>
       </c>
@@ -26773,8 +27033,11 @@
       <c r="G47" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1">
+      <c r="AK47" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="16" customHeight="1">
       <c r="A48" t="s">
         <v>256</v>
       </c>
@@ -26796,8 +27059,11 @@
       <c r="G48" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1">
+      <c r="AK48" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="16" customHeight="1">
       <c r="A49" t="s">
         <v>208</v>
       </c>
@@ -26819,8 +27085,11 @@
       <c r="G49" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16" customHeight="1">
+      <c r="AK49" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" ht="16" customHeight="1">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -26842,8 +27111,11 @@
       <c r="G50" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" customHeight="1">
+      <c r="AK50" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="16" customHeight="1">
       <c r="A51" t="s">
         <v>224</v>
       </c>
@@ -26865,8 +27137,11 @@
       <c r="G51" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" customHeight="1">
+      <c r="AK51" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="16" customHeight="1">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -26888,8 +27163,11 @@
       <c r="G52" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1">
+      <c r="AK52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="16" customHeight="1">
       <c r="A53" t="s">
         <v>254</v>
       </c>
@@ -26911,8 +27189,11 @@
       <c r="G53" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" customHeight="1">
+      <c r="AK53" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="16" customHeight="1">
       <c r="A54" t="s">
         <v>250</v>
       </c>
@@ -26934,8 +27215,11 @@
       <c r="G54" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1">
+      <c r="AK54" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="16" customHeight="1">
       <c r="A55" t="s">
         <v>256</v>
       </c>
@@ -26958,7 +27242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1">
+    <row r="56" spans="1:37" ht="16" customHeight="1">
       <c r="A56" t="s">
         <v>246</v>
       </c>
@@ -26981,7 +27265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1">
+    <row r="57" spans="1:37" ht="16" customHeight="1">
       <c r="A57" t="s">
         <v>232</v>
       </c>
@@ -27004,7 +27288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" customHeight="1">
+    <row r="58" spans="1:37" ht="16" customHeight="1">
       <c r="A58" t="s">
         <v>276</v>
       </c>
@@ -27027,7 +27311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1">
+    <row r="59" spans="1:37" ht="16" customHeight="1">
       <c r="A59" t="s">
         <v>314</v>
       </c>
@@ -27050,7 +27334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1">
+    <row r="60" spans="1:37" ht="16" customHeight="1">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -27073,7 +27357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1">
+    <row r="61" spans="1:37" ht="16" customHeight="1">
       <c r="A61" t="s">
         <v>280</v>
       </c>
@@ -27096,7 +27380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" customHeight="1">
+    <row r="62" spans="1:37" ht="16" customHeight="1">
       <c r="A62" t="s">
         <v>242</v>
       </c>
@@ -27119,7 +27403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" customHeight="1">
+    <row r="63" spans="1:37" ht="16" customHeight="1">
       <c r="A63" t="s">
         <v>208</v>
       </c>
@@ -27142,7 +27426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" customHeight="1">
+    <row r="64" spans="1:37" ht="16" customHeight="1">
       <c r="A64" t="s">
         <v>330</v>
       </c>
@@ -28026,16 +28310,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AD36" sqref="AD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47:N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:35" ht="17">
       <c r="A1" s="3" t="s">
         <v>525</v>
       </c>
@@ -28058,7 +28342,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1">
+    <row r="2" spans="1:35" ht="16" customHeight="1">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -28081,7 +28365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1">
+    <row r="3" spans="1:35" ht="16" customHeight="1">
       <c r="A3" t="s">
         <v>449</v>
       </c>
@@ -28104,7 +28388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1">
+    <row r="4" spans="1:35" ht="16" customHeight="1">
       <c r="A4" t="s">
         <v>339</v>
       </c>
@@ -28127,7 +28411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1">
+    <row r="5" spans="1:35" ht="16" customHeight="1">
       <c r="A5" t="s">
         <v>453</v>
       </c>
@@ -28150,7 +28434,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1">
+    <row r="6" spans="1:35" ht="16" customHeight="1">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -28173,7 +28457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1">
+    <row r="7" spans="1:35" ht="16" customHeight="1">
       <c r="A7" t="s">
         <v>505</v>
       </c>
@@ -28196,7 +28480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1">
+    <row r="8" spans="1:35" ht="16" customHeight="1">
       <c r="A8" t="s">
         <v>515</v>
       </c>
@@ -28219,7 +28503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1">
+    <row r="9" spans="1:35" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>369</v>
       </c>
@@ -28242,7 +28526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1">
+    <row r="10" spans="1:35" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>465</v>
       </c>
@@ -28265,7 +28549,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1">
+    <row r="11" spans="1:35" ht="16" customHeight="1">
       <c r="A11" t="s">
         <v>465</v>
       </c>
@@ -28288,7 +28572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1">
+    <row r="12" spans="1:35" ht="16" customHeight="1">
       <c r="A12" t="s">
         <v>425</v>
       </c>
@@ -28311,7 +28595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1">
+    <row r="13" spans="1:35" ht="16" customHeight="1">
       <c r="A13" t="s">
         <v>445</v>
       </c>
@@ -28334,7 +28618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1">
+    <row r="14" spans="1:35" ht="16" customHeight="1">
       <c r="A14" t="s">
         <v>499</v>
       </c>
@@ -28356,8 +28640,11 @@
       <c r="G14" s="5">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="AI14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="16" customHeight="1">
       <c r="A15" t="s">
         <v>511</v>
       </c>
@@ -28379,8 +28666,11 @@
       <c r="G15" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1">
+      <c r="AI15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="16" customHeight="1">
       <c r="A16" t="s">
         <v>483</v>
       </c>
@@ -28402,8 +28692,11 @@
       <c r="G16" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1">
+      <c r="AI16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="16" customHeight="1">
       <c r="A17" t="s">
         <v>471</v>
       </c>
@@ -28425,8 +28718,11 @@
       <c r="G17" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1">
+      <c r="AI17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="16" customHeight="1">
       <c r="A18" t="s">
         <v>383</v>
       </c>
@@ -28448,8 +28744,11 @@
       <c r="G18" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1">
+      <c r="AI18" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="16" customHeight="1">
       <c r="A19" t="s">
         <v>477</v>
       </c>
@@ -28471,8 +28770,11 @@
       <c r="G19" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1">
+      <c r="AI19" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="16" customHeight="1">
       <c r="A20" t="s">
         <v>469</v>
       </c>
@@ -28494,8 +28796,11 @@
       <c r="G20" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1">
+      <c r="AI20" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="16" customHeight="1">
       <c r="A21" t="s">
         <v>523</v>
       </c>
@@ -28517,8 +28822,11 @@
       <c r="G21" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1">
+      <c r="AI21" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="16" customHeight="1">
       <c r="A22" t="s">
         <v>485</v>
       </c>
@@ -28540,8 +28848,11 @@
       <c r="G22" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1">
+      <c r="AI22" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="16" customHeight="1">
       <c r="A23" t="s">
         <v>459</v>
       </c>
@@ -28563,8 +28874,11 @@
       <c r="G23" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1">
+      <c r="AI23" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="16" customHeight="1">
       <c r="A24" t="s">
         <v>423</v>
       </c>
@@ -28586,8 +28900,11 @@
       <c r="G24" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1">
+      <c r="AI24" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="16" customHeight="1">
       <c r="A25" t="s">
         <v>415</v>
       </c>
@@ -28609,8 +28926,11 @@
       <c r="G25" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1">
+      <c r="AI25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="16" customHeight="1">
       <c r="A26" t="s">
         <v>463</v>
       </c>
@@ -28632,8 +28952,11 @@
       <c r="G26" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1">
+      <c r="AI26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="16" customHeight="1">
       <c r="A27" t="s">
         <v>451</v>
       </c>
@@ -28655,8 +28978,11 @@
       <c r="G27" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1">
+      <c r="AI27" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="16" customHeight="1">
       <c r="A28" t="s">
         <v>489</v>
       </c>
@@ -28678,8 +29004,11 @@
       <c r="G28" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1">
+      <c r="AI28" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="16" customHeight="1">
       <c r="A29" t="s">
         <v>485</v>
       </c>
@@ -28701,8 +29030,11 @@
       <c r="G29" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1">
+      <c r="AI29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="16" customHeight="1">
       <c r="A30" t="s">
         <v>463</v>
       </c>
@@ -28724,8 +29056,11 @@
       <c r="G30" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1">
+      <c r="AI30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="16" customHeight="1">
       <c r="A31" t="s">
         <v>521</v>
       </c>
@@ -28747,8 +29082,11 @@
       <c r="G31" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1">
+      <c r="AI31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="16" customHeight="1">
       <c r="A32" t="s">
         <v>341</v>
       </c>
@@ -28770,8 +29108,11 @@
       <c r="G32" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1">
+      <c r="AI32" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="16" customHeight="1">
       <c r="A33" t="s">
         <v>389</v>
       </c>
@@ -28793,8 +29134,11 @@
       <c r="G33" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1">
+      <c r="AI33" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="16" customHeight="1">
       <c r="A34" t="s">
         <v>481</v>
       </c>
@@ -28816,8 +29160,11 @@
       <c r="G34" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1">
+      <c r="AI34" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="16" customHeight="1">
       <c r="A35" t="s">
         <v>403</v>
       </c>
@@ -28839,8 +29186,11 @@
       <c r="G35" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1">
+      <c r="AI35" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="16" customHeight="1">
       <c r="A36" t="s">
         <v>405</v>
       </c>
@@ -28862,8 +29212,11 @@
       <c r="G36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1">
+      <c r="AI36" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="16" customHeight="1">
       <c r="A37" t="s">
         <v>349</v>
       </c>
@@ -28885,8 +29238,11 @@
       <c r="G37" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1">
+      <c r="AI37" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="16" customHeight="1">
       <c r="A38" t="s">
         <v>421</v>
       </c>
@@ -28908,8 +29264,11 @@
       <c r="G38" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1">
+      <c r="AI38" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="16" customHeight="1">
       <c r="A39" t="s">
         <v>361</v>
       </c>
@@ -28931,8 +29290,11 @@
       <c r="G39" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1">
+      <c r="AI39" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="16" customHeight="1">
       <c r="A40" t="s">
         <v>347</v>
       </c>
@@ -28954,8 +29316,11 @@
       <c r="G40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1">
+      <c r="AI40" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="16" customHeight="1">
       <c r="A41" t="s">
         <v>495</v>
       </c>
@@ -28977,8 +29342,11 @@
       <c r="G41" s="5">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1">
+      <c r="AI41" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="16" customHeight="1">
       <c r="A42" t="s">
         <v>403</v>
       </c>
@@ -29000,8 +29368,11 @@
       <c r="G42" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1">
+      <c r="AI42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="16" customHeight="1">
       <c r="A43" t="s">
         <v>401</v>
       </c>
@@ -29023,8 +29394,11 @@
       <c r="G43" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1">
+      <c r="AI43" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="16" customHeight="1">
       <c r="A44" t="s">
         <v>351</v>
       </c>
@@ -29046,8 +29420,11 @@
       <c r="G44" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1">
+      <c r="AI44" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="16" customHeight="1">
       <c r="A45" t="s">
         <v>373</v>
       </c>
@@ -29069,8 +29446,11 @@
       <c r="G45" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1">
+      <c r="AI45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="16" customHeight="1">
       <c r="A46" t="s">
         <v>419</v>
       </c>
@@ -29092,8 +29472,11 @@
       <c r="G46" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1">
+      <c r="AI46" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="16" customHeight="1">
       <c r="A47" t="s">
         <v>409</v>
       </c>
@@ -29115,8 +29498,11 @@
       <c r="G47" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1">
+      <c r="AI47" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="16" customHeight="1">
       <c r="A48" t="s">
         <v>433</v>
       </c>
@@ -29138,8 +29524,11 @@
       <c r="G48" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1">
+      <c r="AI48" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" ht="16" customHeight="1">
       <c r="A49" t="s">
         <v>487</v>
       </c>
@@ -29161,8 +29550,11 @@
       <c r="G49" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16" customHeight="1">
+      <c r="AI49" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" ht="16" customHeight="1">
       <c r="A50" t="s">
         <v>501</v>
       </c>
@@ -29184,8 +29576,11 @@
       <c r="G50" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" customHeight="1">
+      <c r="AI50" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" ht="16" customHeight="1">
       <c r="A51" t="s">
         <v>427</v>
       </c>
@@ -29207,8 +29602,11 @@
       <c r="G51" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" customHeight="1">
+      <c r="AI51" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" ht="16" customHeight="1">
       <c r="A52" t="s">
         <v>437</v>
       </c>
@@ -29230,8 +29628,11 @@
       <c r="G52" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1">
+      <c r="AI52" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" ht="16" customHeight="1">
       <c r="A53" t="s">
         <v>507</v>
       </c>
@@ -29253,8 +29654,11 @@
       <c r="G53" s="5">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" customHeight="1">
+      <c r="AI53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" ht="16" customHeight="1">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -29276,8 +29680,11 @@
       <c r="G54" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1">
+      <c r="AI54" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" ht="16" customHeight="1">
       <c r="A55" t="s">
         <v>491</v>
       </c>
@@ -29299,8 +29706,11 @@
       <c r="G55" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1">
+      <c r="AI55" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" ht="16" customHeight="1">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -29322,8 +29732,11 @@
       <c r="G56" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1">
+      <c r="AI56" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" ht="16" customHeight="1">
       <c r="A57" t="s">
         <v>455</v>
       </c>
@@ -29346,7 +29759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" customHeight="1">
+    <row r="58" spans="1:35" ht="16" customHeight="1">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -29369,7 +29782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1">
+    <row r="59" spans="1:35" ht="16" customHeight="1">
       <c r="A59" t="s">
         <v>473</v>
       </c>
@@ -29392,7 +29805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1">
+    <row r="60" spans="1:35" ht="16" customHeight="1">
       <c r="A60" t="s">
         <v>385</v>
       </c>
@@ -29415,7 +29828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1">
+    <row r="61" spans="1:35" ht="16" customHeight="1">
       <c r="A61" t="s">
         <v>461</v>
       </c>
@@ -29438,7 +29851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16" customHeight="1">
+    <row r="62" spans="1:35" ht="16" customHeight="1">
       <c r="A62" t="s">
         <v>413</v>
       </c>
@@ -29461,7 +29874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16" customHeight="1">
+    <row r="63" spans="1:35" ht="16" customHeight="1">
       <c r="A63" t="s">
         <v>441</v>
       </c>
@@ -29484,7 +29897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" customHeight="1">
+    <row r="64" spans="1:35" ht="16" customHeight="1">
       <c r="A64" t="s">
         <v>345</v>
       </c>

--- a/db/db_analysis/query_execution_times_4-8-2021-03-19.xlsx
+++ b/db/db_analysis/query_execution_times_4-8-2021-03-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2802E44D-0A7C-0146-91A5-37860EEC6311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D8A4C-5563-6443-BBD2-8E1ADF109EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="67860" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="780" windowWidth="67860" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_execution_times_4-8-2021-" sheetId="1" r:id="rId1"/>
@@ -14905,44 +14905,6 @@
           <cell r="F2">
             <v>37.7245452404022</v>
           </cell>
-          <cell r="H2">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>41.584400000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>41.584400000000002</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
@@ -23169,6 +23131,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="17">
       <c r="A1" s="3" t="s">
@@ -23555,6 +23520,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="86.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17">
       <c r="A1" s="3" t="s">
@@ -25857,7 +25825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AK17" sqref="AK17:AK54"/>
     </sheetView>
   </sheetViews>
@@ -28313,7 +28281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N47" sqref="N47:N68"/>
     </sheetView>
   </sheetViews>
